--- a/Data_output.xlsx
+++ b/Data_output.xlsx
@@ -1,37 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matej\Matej\Škola\FMFI\mEMM 2023-\Diplomová práca\Kódy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Matej\Škola\FMFI\mEMM 2023-\Diplomová práca\Kódy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E2CD4A-7043-4E85-9B1B-25BE82C6E955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA65CA26-25F3-4CC9-BB4E-4DEE25366EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>d</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>buy_prev</t>
+  </si>
+  <si>
+    <t>sell_prev</t>
+  </si>
+  <si>
+    <t>buy_opt</t>
+  </si>
+  <si>
+    <t>sell_opt</t>
+  </si>
+  <si>
+    <t>cap_opt</t>
   </si>
   <si>
     <t>00:00:00</t>
@@ -320,13 +342,22 @@
   </si>
   <si>
     <t>23:45:00</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +370,27 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -348,7 +400,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -371,17 +423,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -682,13 +754,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,1640 +775,3280 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>68.260000000000005</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>52.71</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="5">
+        <f>H2+0.92*D2-E2/0.93</f>
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="4">
+        <f>H3-I3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>51.12</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I67" si="0">H3+0.92*D3-E3/0.93</f>
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J67" si="1">H4-I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>49.92</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>72.290000000000006</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>64.05</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>53.39</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>45.37</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>58.04</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>73.56</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>46.13</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>44.3</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>56.12</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>62.38</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>17.37</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>33.57</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>57.92</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>39.130000000000003</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>39.270000000000003</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>105.89</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>61.02</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.25268817204301081</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25268817204301075</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>68</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.25268817204301081</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25268817204301081</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>48.74</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.25268817204301081</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25268817204301081</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>56.93</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.25268817204301081</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25268817204301081</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>68.42</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.25268817204301081</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25268817204301081</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>75.459999999999994</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
         <v>4.9999999999999958E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4.9999999999999958E-3</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.25268817204301081</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25268817204301081</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>53.96</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.24731182795698919</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.24731182795698931</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>50.07</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.24731182795698919</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="0"/>
+        <v>0.24731182795698919</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>76.13</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.24731182795698919</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="0"/>
+        <v>0.24731182795698919</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>73.97</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>52.89</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>24.28</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>59.31</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>67.260000000000005</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>45.36</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>-21.93</v>
       </c>
-      <c r="D37">
-        <v>6.9565217391301809E-3</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D37" s="2">
+        <v>8.6956521739130474E-2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>8.6956521739130474E-2</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <v>25.81</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>8.0000000000000043E-2</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000043E-2</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>17.52</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>8.0000000000000043E-2</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000043E-2</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C40">
         <v>13.91</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>8.0000000000000043E-2</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000043E-2</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C41">
         <v>-42.55</v>
       </c>
-      <c r="D41">
-        <v>0.27</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D41" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>8.0000000000000043E-2</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000043E-2</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <v>12.41</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.31000000000000011</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="0"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <v>3.91</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.31000000000000011</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="0"/>
+        <v>0.31000000000000011</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C44">
         <v>0.6</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.31000000000000011</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="0"/>
+        <v>0.31000000000000011</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C45">
         <v>-22.28</v>
       </c>
-      <c r="D45">
-        <v>0.27</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D45" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.31000000000000011</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="0"/>
+        <v>0.31000000000000011</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C46">
         <v>8.18</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="0"/>
+        <v>0.54000000000000015</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C47">
         <v>6.01</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C48">
         <v>-4.3899999999999997</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C49">
         <v>-22.35</v>
       </c>
-      <c r="D49">
-        <v>0.27</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D49" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C50">
         <v>6.58</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I50" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C51">
         <v>6.14</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="J51" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C52">
         <v>7.37</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I52" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="J52" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <v>-2.5099999999999998</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C54">
         <v>-3.44</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I54" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="J54" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C55">
         <v>0.42</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I55" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="J55" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C56">
         <v>-4.58</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I56" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="J56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C57">
         <v>-6.37</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I57" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="J57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C58">
         <v>-24.52</v>
       </c>
-      <c r="D58">
-        <v>0.27</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D58" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I58" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C59">
         <v>-17.23</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J59" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C60">
         <v>-2.84</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J60" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C61">
         <v>19.93</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+      <c r="I61" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J61" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C62">
         <v>3.74</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+      <c r="I62" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J62" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C63">
         <v>-4.3</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J63" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C64">
         <v>77.11</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J64" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C65">
         <v>116.38</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.75268817204301075</v>
+      </c>
+      <c r="I65" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75268817204301075</v>
+      </c>
+      <c r="J65" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C66">
         <v>-6.42</v>
       </c>
-      <c r="D66">
-        <v>0.27</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D66" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="I66" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="J66" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C67">
         <v>-2.12</v>
       </c>
-      <c r="D67">
-        <v>0.26763440860215049</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D67" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.73537634408602148</v>
+      </c>
+      <c r="I67" s="5">
+        <f t="shared" si="0"/>
+        <v>0.73537634408602148</v>
+      </c>
+      <c r="J67" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C68">
         <v>25.17</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.96537634408602147</v>
+      </c>
+      <c r="I68" s="5">
+        <f t="shared" ref="I68:I97" si="2">H67+0.92*D67-E67/0.93</f>
+        <v>0.96537634408602147</v>
+      </c>
+      <c r="J68" s="4">
+        <f t="shared" ref="J68:J97" si="3">H68-I68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C69">
         <v>73.08</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.18169999999999989</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.18169999999999989</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.96537634408602147</v>
+      </c>
+      <c r="I69" s="5">
+        <f t="shared" si="2"/>
+        <v>0.96537634408602147</v>
+      </c>
+      <c r="J69" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C70">
         <v>43.32</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I70" s="5">
+        <f t="shared" si="2"/>
+        <v>0.77000000000000013</v>
+      </c>
+      <c r="J70" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C71">
         <v>4.3499999999999996</v>
       </c>
-      <c r="D71">
-        <v>0.26881720430107531</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D71" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I71" s="5">
+        <f t="shared" si="2"/>
+        <v>0.77</v>
+      </c>
+      <c r="J71" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C72">
         <v>88.95</v>
       </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J72" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C73">
         <v>157.19</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+      <c r="I73" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J73" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C74">
         <v>69.790000000000006</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.75268817204301075</v>
+      </c>
+      <c r="I74" s="5">
+        <f t="shared" si="2"/>
+        <v>0.75268817204301075</v>
+      </c>
+      <c r="J74" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C75">
         <v>73.180000000000007</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0.75268817204301075</v>
+      </c>
+      <c r="I75" s="5">
+        <f t="shared" si="2"/>
+        <v>0.75268817204301075</v>
+      </c>
+      <c r="J75" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C76">
         <v>109.15</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D76" s="2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.75268817204301075</v>
+      </c>
+      <c r="I76" s="5">
+        <f t="shared" si="2"/>
+        <v>0.75268817204301075</v>
+      </c>
+      <c r="J76" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C77">
         <v>142.01</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
+      <c r="D77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0.75268817204301075</v>
+      </c>
+      <c r="I77" s="5">
+        <f t="shared" si="2"/>
+        <v>0.75268817204301075</v>
+      </c>
+      <c r="J77" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C78">
         <v>86.08</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="I78" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="J78" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C79">
         <v>73.05</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="I79" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="J79" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C80">
         <v>121.01</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="I80" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="J80" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C81">
         <v>154.37</v>
       </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="I81" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5053763440860215</v>
+      </c>
+      <c r="J81" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C82">
         <v>105.57</v>
       </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0.25806451612903231</v>
+      </c>
+      <c r="I82" s="5">
+        <f t="shared" si="2"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="J82" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C83">
         <v>116.49</v>
       </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0.25806451612903231</v>
+      </c>
+      <c r="I83" s="5">
+        <f t="shared" si="2"/>
+        <v>0.25806451612903231</v>
+      </c>
+      <c r="J83" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C84">
         <v>121.3</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0.25806451612903231</v>
+      </c>
+      <c r="I84" s="5">
+        <f t="shared" si="2"/>
+        <v>0.25806451612903231</v>
+      </c>
+      <c r="J84" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C85">
         <v>114.27</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0.25806451612903231</v>
+      </c>
+      <c r="I85" s="5">
+        <f t="shared" si="2"/>
+        <v>0.25806451612903231</v>
+      </c>
+      <c r="J85" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C86">
         <v>110.84</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0.25806451612903231</v>
+      </c>
+      <c r="I86" s="5">
+        <f t="shared" si="2"/>
+        <v>0.25806451612903231</v>
+      </c>
+      <c r="J86" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C87">
         <v>131.15</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>1.4999999999999909E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0.25806451612903231</v>
+      </c>
+      <c r="I87" s="5">
+        <f t="shared" si="2"/>
+        <v>0.25806451612903231</v>
+      </c>
+      <c r="J87" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C88">
         <v>70.38</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="I88" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="J88" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C89">
         <v>57.58</v>
       </c>
-      <c r="D89">
-        <v>1.050490883590452E-2</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D89" s="2">
+        <v>8.6956521739130405E-2</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <v>-0.11304347826086961</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="I89" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19</v>
+      </c>
+      <c r="J89" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C90">
         <v>106.34</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="I90" s="5">
+        <f t="shared" si="2"/>
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="J90" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C91">
         <v>106.21</v>
       </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="I91" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27</v>
+      </c>
+      <c r="J91" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C92">
         <v>92.1</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="I92" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27</v>
+      </c>
+      <c r="J92" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C93">
         <v>60.77</v>
       </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="I93" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27</v>
+      </c>
+      <c r="J93" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C94">
         <v>92.85</v>
       </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="I94" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27</v>
+      </c>
+      <c r="J94" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C95">
         <v>94.61</v>
       </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="I95" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27</v>
+      </c>
+      <c r="J95" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C96">
         <v>73.569999999999993</v>
       </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="I96" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27</v>
+      </c>
+      <c r="J96" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C97">
         <v>56.33</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
         <v>0.27</v>
       </c>
-      <c r="E97">
+      <c r="I97" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27</v>
+      </c>
+      <c r="J97" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>